--- a/dataset/score/venkateswara.xlsx
+++ b/dataset/score/venkateswara.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6050000000000001</v>
+        <v>0.5378571428571428</v>
       </c>
       <c r="G11" t="n">
         <v>0.75</v>
@@ -961,7 +961,7 @@
         <v>0.975</v>
       </c>
       <c r="I11" t="n">
-        <v>0.55</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J11" t="n">
         <v>0.25</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5642857142857143</v>
+        <v>0.5261904761904762</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0.9880952380952381</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J18" t="n">
         <v>0.5</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J22" t="n">
         <v>0.75</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.62</v>
+        <v>0.5321428571428571</v>
       </c>
       <c r="G26" t="n">
         <v>0.75</v>
@@ -1681,10 +1681,10 @@
         <v>0.875</v>
       </c>
       <c r="I26" t="n">
-        <v>0.725</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0.5</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5549999999999999</v>
+        <v>0.5153571428571428</v>
       </c>
       <c r="G27" t="n">
         <v>0.75</v>
@@ -1729,7 +1729,7 @@
         <v>0.8625</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4125</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J27" t="n">
         <v>0.25</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.5925</v>
+        <v>0.5328571428571428</v>
       </c>
       <c r="G28" t="n">
         <v>0.75</v>
@@ -1777,7 +1777,7 @@
         <v>0.95</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5125</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J28" t="n">
         <v>0.5</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.34</v>
+        <v>0.2757142857142857</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>-0.05000000000000004</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>0.75</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6166666666666666</v>
+        <v>0.5785714285714285</v>
       </c>
       <c r="G35" t="n">
         <v>0.75</v>
@@ -2113,7 +2113,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.5</v>
       </c>
       <c r="J35" t="n">
         <v>0.25</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4525</v>
+        <v>0.4060714285714285</v>
       </c>
       <c r="G36" t="n">
         <v>0.75</v>
@@ -2161,7 +2161,7 @@
         <v>0.8875</v>
       </c>
       <c r="I36" t="n">
-        <v>0.375</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
         <v>0.75</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.79</v>
+        <v>0.7617857142857143</v>
       </c>
       <c r="G38" t="n">
         <v>0.75</v>
@@ -2257,7 +2257,7 @@
         <v>0.9875</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J38" t="n">
         <v>0.75</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3725</v>
+        <v>0.3617857142857143</v>
       </c>
       <c r="G41" t="n">
         <v>0.25</v>
@@ -2401,7 +2401,7 @@
         <v>0.4875</v>
       </c>
       <c r="I41" t="n">
-        <v>0.375</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J41" t="n">
         <v>0.25</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
         <v>-0.25</v>
@@ -2450,7 +2450,7 @@
         <v>-0.25</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J42" t="n">
         <v>0.25</v>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.395</v>
+        <v>0.3421428571428572</v>
       </c>
       <c r="G45" t="n">
         <v>0.5</v>
@@ -2594,7 +2594,7 @@
         <v>0.675</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J49" t="n">
         <v>0.75</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
         <v>0.75</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J59" t="n">
         <v>0.75</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
         <v>0.75</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3362,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J66" t="n">
         <v>0.75</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.7404761904761905</v>
+        <v>0.7095238095238094</v>
       </c>
       <c r="G74" t="n">
         <v>0.75</v>
@@ -3986,7 +3986,7 @@
         <v>0.9404761904761905</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J74" t="n">
         <v>0.5</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4082,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.5225</v>
+        <v>0.4689285714285715</v>
       </c>
       <c r="G82" t="n">
         <v>0.75</v>
@@ -4370,7 +4370,7 @@
         <v>0.9875</v>
       </c>
       <c r="I82" t="n">
-        <v>0.375</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J82" t="n">
         <v>0.25</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.755</v>
+        <v>0.7210714285714286</v>
       </c>
       <c r="G83" t="n">
         <v>0.75</v>
@@ -4418,7 +4418,7 @@
         <v>0.9625</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8125</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J83" t="n">
         <v>0.5</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J85" t="n">
         <v>0.25</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
         <v>0.75</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
         <v>0.5</v>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>

--- a/dataset/score/venkateswara.xlsx
+++ b/dataset/score/venkateswara.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -955,16 +955,16 @@
         <v>0.5378571428571428</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>0.975</v>
       </c>
       <c r="H11" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0.2142857142857143</v>
       </c>
       <c r="J11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0.5</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         <v>0.5261904761904762</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9880952380952381</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0.1428571428571428</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1672,19 +1672,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5321428571428571</v>
+        <v>0.6821428571428572</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="H26" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0.5357142857142857</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.5</v>
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5153571428571428</v>
+        <v>0.5653571428571429</v>
       </c>
       <c r="G27" t="n">
-        <v>0.75</v>
+        <v>0.8625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8625</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0.2142857142857143</v>
@@ -1771,16 +1771,16 @@
         <v>0.5328571428571428</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H28" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0.2142857142857143</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K28" t="n">
         <v>0.25</v>
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.2757142857142857</v>
+        <v>0.4757142857142857</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0.1785714285714286</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2104,13 +2104,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5785714285714285</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0.5</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4060714285714285</v>
+        <v>0.4560714285714285</v>
       </c>
       <c r="G36" t="n">
-        <v>0.75</v>
+        <v>0.8875</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8875</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0.1428571428571428</v>
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7617857142857143</v>
+        <v>0.8117857142857142</v>
       </c>
       <c r="G38" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0.5714285714285714</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3617857142857143</v>
+        <v>0.4117857142857143</v>
       </c>
       <c r="G41" t="n">
-        <v>0.25</v>
+        <v>0.4875</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4875</v>
+        <v>0.5</v>
       </c>
       <c r="I41" t="n">
         <v>0.3214285714285715</v>
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0.25</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.3421428571428572</v>
+        <v>0.3921428571428572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.675</v>
       </c>
       <c r="H45" t="n">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="I45" t="n">
         <v>0.03571428571428571</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0.75</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -3116,10 +3116,10 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.1785714285714286</v>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K59" t="n">
         <v>0.75</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J66" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3980,16 +3980,16 @@
         <v>0.7095238095238094</v>
       </c>
       <c r="G74" t="n">
-        <v>0.75</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9404761904761905</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0.6071428571428571</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K74" t="n">
         <v>0.75</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.4689285714285715</v>
+        <v>0.5189285714285715</v>
       </c>
       <c r="G82" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0.1071428571428571</v>
@@ -4412,16 +4412,16 @@
         <v>0.7210714285714286</v>
       </c>
       <c r="G83" t="n">
-        <v>0.75</v>
+        <v>0.9625</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0.6428571428571429</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K83" t="n">
         <v>0.75</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4469,7 +4469,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4505,13 +4505,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0.4642857142857143</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K96" t="n">
         <v>0.75</v>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
